--- a/data/full_library_dataset.xlsx
+++ b/data/full_library_dataset.xlsx
@@ -34913,19 +34913,19 @@
       <c r="A622" t="inlineStr"/>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Anatomie et physiologie humaines</t>
+          <t>LECTURE NOTES IN ENGLISH FOR COMPUTING</t>
         </is>
       </c>
       <c r="C622" t="inlineStr"/>
       <c r="D622" t="inlineStr">
         <is>
-          <t>611.9/MAR/2</t>
+          <t>004 BEL/10</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
       <c r="F622" t="inlineStr">
         <is>
-          <t>anatomie et physiologie humaines</t>
+          <t>lecture notes in english for computing</t>
         </is>
       </c>
       <c r="G622" t="inlineStr">
@@ -34934,7 +34934,7 @@
         </is>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -34943,7 +34943,7 @@
         <v>0</v>
       </c>
       <c r="K622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L622" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
       <c r="A624" t="inlineStr"/>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Big Data Analytics with Applications in Insider Threat Detection</t>
+          <t>Ant Colony Optimization</t>
         </is>
       </c>
       <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>005.8 PAR/1</t>
+          <t>005.1.16.DOR/1</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr">
         <is>
-          <t>big data analytics with applications in insider threat detection</t>
+          <t>ant colony optimization</t>
         </is>
       </c>
       <c r="G624" t="inlineStr">
@@ -35047,13 +35047,13 @@
         <v>0</v>
       </c>
       <c r="K624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L624" t="n">
         <v>0</v>
       </c>
       <c r="M624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N624" t="n">
         <v>1</v>
@@ -35069,19 +35069,19 @@
       <c r="A625" t="inlineStr"/>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Eléments de la théorie des probabilités T.1</t>
+          <t>Algebre 1 : rappels de cours et exercices avec solutions</t>
         </is>
       </c>
       <c r="C625" t="inlineStr"/>
       <c r="D625" t="inlineStr">
         <is>
-          <t>519.2 BOU/16/T1</t>
+          <t>512/BEN/6</t>
         </is>
       </c>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr">
         <is>
-          <t>eléments de la théorie des probabilités t.1</t>
+          <t>algebre 1 : rappels de cours et exercices avec solutions</t>
         </is>
       </c>
       <c r="G625" t="inlineStr">
@@ -35090,10 +35090,10 @@
         </is>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I625" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J625" t="n">
         <v>0</v>
@@ -35108,32 +35108,32 @@
         <v>0</v>
       </c>
       <c r="N625" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="O625" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P625" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr"/>
       <c r="B626" t="inlineStr">
         <is>
-          <t>مهارات التفكير النقدي : لدى طلاب الجامعات العربية</t>
+          <t>Marketing Management</t>
         </is>
       </c>
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>NAN</t>
+          <t>380/KOL/4</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
       <c r="F626" t="inlineStr">
         <is>
-          <t>مهارات التفكير النقدي : لدى طلاب الجامعات العربية</t>
+          <t>marketing management</t>
         </is>
       </c>
       <c r="G626" t="inlineStr">
@@ -35142,13 +35142,13 @@
         </is>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
       </c>
       <c r="J626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K626" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
       <c r="A627" t="inlineStr"/>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Marketing Management</t>
+          <t>Le MBA visuel : deux années de MBA en un un seul livre dans lequel un dessin vaut mieux que 1000 mot</t>
         </is>
       </c>
       <c r="C627" t="inlineStr"/>
       <c r="D627" t="inlineStr">
         <is>
-          <t>380/KOL/4</t>
+          <t>350 BAR/3</t>
         </is>
       </c>
       <c r="E627" t="inlineStr"/>
       <c r="F627" t="inlineStr">
         <is>
-          <t>marketing management</t>
+          <t>le mba visuel : deux années de mba en un un seul livre dans lequel un dessin vaut mieux que 1000 mot</t>
         </is>
       </c>
       <c r="G627" t="inlineStr">
@@ -35197,10 +35197,10 @@
         <v>0</v>
       </c>
       <c r="I627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K627" t="n">
         <v>0</v>
@@ -35212,10 +35212,10 @@
         <v>0</v>
       </c>
       <c r="N627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P627" t="n">
         <v>1</v>
@@ -35225,19 +35225,19 @@
       <c r="A628" t="inlineStr"/>
       <c r="B628" t="inlineStr">
         <is>
-          <t>ELEMENTS D'ANALYSE NUMERIQUE</t>
+          <t>Algèbre : cours et exercices avec solutions</t>
         </is>
       </c>
       <c r="C628" t="inlineStr"/>
       <c r="D628" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>512 DOM</t>
         </is>
       </c>
       <c r="E628" t="inlineStr"/>
       <c r="F628" t="inlineStr">
         <is>
-          <t>elements d'analyse numerique</t>
+          <t>algèbre : cours et exercices avec solutions</t>
         </is>
       </c>
       <c r="G628" t="inlineStr">
@@ -35246,10 +35246,10 @@
         </is>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J628" t="n">
         <v>0</v>
@@ -35264,10 +35264,10 @@
         <v>0</v>
       </c>
       <c r="N628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P628" t="n">
         <v>1</v>
@@ -35277,19 +35277,19 @@
       <c r="A629" t="inlineStr"/>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Algebre 1 : rappels de cours et exercices avec solutions</t>
+          <t>Pattern Recognition and Neural Networks</t>
         </is>
       </c>
       <c r="C629" t="inlineStr"/>
       <c r="D629" t="inlineStr">
         <is>
-          <t>512/BEN/6</t>
+          <t>006.4 RIP</t>
         </is>
       </c>
       <c r="E629" t="inlineStr"/>
       <c r="F629" t="inlineStr">
         <is>
-          <t>algebre 1 : rappels de cours et exercices avec solutions</t>
+          <t>pattern recognition and neural networks</t>
         </is>
       </c>
       <c r="G629" t="inlineStr">
@@ -35298,16 +35298,16 @@
         </is>
       </c>
       <c r="H629" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J629" t="n">
         <v>0</v>
       </c>
       <c r="K629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L629" t="n">
         <v>0</v>
@@ -35316,32 +35316,32 @@
         <v>0</v>
       </c>
       <c r="N629" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="O629" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P629" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr"/>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Algèbre : cours et exercices avec solutions</t>
+          <t>Les Mathématiques en licence : cours et exercices résolus, 2e année. Tome1</t>
         </is>
       </c>
       <c r="C630" t="inlineStr"/>
       <c r="D630" t="inlineStr">
         <is>
-          <t>512 DOM</t>
+          <t>510AZO</t>
         </is>
       </c>
       <c r="E630" t="inlineStr"/>
       <c r="F630" t="inlineStr">
         <is>
-          <t>algèbre : cours et exercices avec solutions</t>
+          <t>les mathématiques en licence : cours et exercices résolus, 2e année. tome1</t>
         </is>
       </c>
       <c r="G630" t="inlineStr">
@@ -35350,7 +35350,7 @@
         </is>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -35359,7 +35359,7 @@
         <v>0</v>
       </c>
       <c r="K630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L630" t="n">
         <v>0</v>
@@ -35368,10 +35368,10 @@
         <v>0</v>
       </c>
       <c r="N630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P630" t="n">
         <v>1</v>
@@ -35381,19 +35381,19 @@
       <c r="A631" t="inlineStr"/>
       <c r="B631" t="inlineStr">
         <is>
-          <t>400 exercices corrigés d'algèbre avec rappels de cours pour Spé MP-MP*</t>
+          <t>Eléments de la théorie des probabilités T.1</t>
         </is>
       </c>
       <c r="C631" t="inlineStr"/>
       <c r="D631" t="inlineStr">
         <is>
-          <t>512/AAS/1</t>
+          <t>519.2 BOU/16/T1</t>
         </is>
       </c>
       <c r="E631" t="inlineStr"/>
       <c r="F631" t="inlineStr">
         <is>
-          <t>400 exercices corrigés d'algèbre avec rappels de cours pour spé mp-mp*</t>
+          <t>eléments de la théorie des probabilités t.1</t>
         </is>
       </c>
       <c r="G631" t="inlineStr">
@@ -35405,7 +35405,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J631" t="n">
         <v>0</v>
@@ -35417,16 +35417,16 @@
         <v>0</v>
       </c>
       <c r="M631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N631" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P631" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="632">
@@ -35485,19 +35485,19 @@
       <c r="A633" t="inlineStr"/>
       <c r="B633" t="inlineStr">
         <is>
-          <t>LECTURE NOTES IN ENGLISH FOR COMPUTING</t>
+          <t>Algèbre 1re année</t>
         </is>
       </c>
       <c r="C633" t="inlineStr"/>
       <c r="D633" t="inlineStr">
         <is>
-          <t>004 BEL/10</t>
+          <t>512.MAR/1</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
       <c r="F633" t="inlineStr">
         <is>
-          <t>lecture notes in english for computing</t>
+          <t>algèbre 1re année</t>
         </is>
       </c>
       <c r="G633" t="inlineStr">
@@ -35506,10 +35506,10 @@
         </is>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J633" t="n">
         <v>0</v>
@@ -35524,32 +35524,32 @@
         <v>0</v>
       </c>
       <c r="N633" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P633" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr"/>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Cambridge English Skills Real Listening and Speaking 2</t>
+          <t>Programmation Linéaire</t>
         </is>
       </c>
       <c r="C634" t="inlineStr"/>
       <c r="D634" t="inlineStr">
         <is>
-          <t>NAN</t>
+          <t>519.72 BEN/13</t>
         </is>
       </c>
       <c r="E634" t="inlineStr"/>
       <c r="F634" t="inlineStr">
         <is>
-          <t>cambridge english skills real listening and speaking 2</t>
+          <t>programmation linéaire</t>
         </is>
       </c>
       <c r="G634" t="inlineStr">
@@ -35564,7 +35564,7 @@
         <v>0</v>
       </c>
       <c r="J634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K634" t="n">
         <v>0</v>
@@ -35573,7 +35573,7 @@
         <v>0</v>
       </c>
       <c r="M634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N634" t="n">
         <v>1</v>
@@ -35589,19 +35589,19 @@
       <c r="A635" t="inlineStr"/>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Pattern Recognition and Neural Networks</t>
+          <t>مهارات التفكير النقدي : لدى طلاب الجامعات العربية</t>
         </is>
       </c>
       <c r="C635" t="inlineStr"/>
       <c r="D635" t="inlineStr">
         <is>
-          <t>006.4 RIP</t>
+          <t>NAN</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
       <c r="F635" t="inlineStr">
         <is>
-          <t>pattern recognition and neural networks</t>
+          <t>مهارات التفكير النقدي : لدى طلاب الجامعات العربية</t>
         </is>
       </c>
       <c r="G635" t="inlineStr">
@@ -35610,7 +35610,7 @@
         </is>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -35619,7 +35619,7 @@
         <v>0</v>
       </c>
       <c r="K635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L635" t="n">
         <v>0</v>
@@ -35628,10 +35628,10 @@
         <v>0</v>
       </c>
       <c r="N635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P635" t="n">
         <v>1</v>
@@ -35641,19 +35641,19 @@
       <c r="A636" t="inlineStr"/>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Algèbre 1re année</t>
+          <t>Big Data Analytics with Applications in Insider Threat Detection</t>
         </is>
       </c>
       <c r="C636" t="inlineStr"/>
       <c r="D636" t="inlineStr">
         <is>
-          <t>512.MAR/1</t>
+          <t>005.8 PAR/1</t>
         </is>
       </c>
       <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr">
         <is>
-          <t>algèbre 1re année</t>
+          <t>big data analytics with applications in insider threat detection</t>
         </is>
       </c>
       <c r="G636" t="inlineStr">
@@ -35662,10 +35662,10 @@
         </is>
       </c>
       <c r="H636" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J636" t="n">
         <v>0</v>
@@ -35677,35 +35677,35 @@
         <v>0</v>
       </c>
       <c r="M636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N636" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P636" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr"/>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Penser comme un millionaire :changer ses habitudes pour réussir et étre heureux</t>
+          <t>Algorithmique : cours et exercices corrigés</t>
         </is>
       </c>
       <c r="C637" t="inlineStr"/>
       <c r="D637" t="inlineStr">
         <is>
-          <t>150/GRA/2</t>
+          <t>512/OUR/1</t>
         </is>
       </c>
       <c r="E637" t="inlineStr"/>
       <c r="F637" t="inlineStr">
         <is>
-          <t>penser comme un millionaire :changer ses habitudes pour réussir et étre heureux</t>
+          <t>algorithmique : cours et exercices corrigés</t>
         </is>
       </c>
       <c r="G637" t="inlineStr">
@@ -35714,10 +35714,10 @@
         </is>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J637" t="n">
         <v>0</v>
@@ -35732,32 +35732,32 @@
         <v>0</v>
       </c>
       <c r="N637" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P637" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr"/>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Algorithmique : cours et exercices corrigés</t>
+          <t>400 exercices corrigés d'algèbre avec rappels de cours pour Spé MP-MP*</t>
         </is>
       </c>
       <c r="C638" t="inlineStr"/>
       <c r="D638" t="inlineStr">
         <is>
-          <t>512/OUR/1</t>
+          <t>512/AAS/1</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
       <c r="F638" t="inlineStr">
         <is>
-          <t>algorithmique : cours et exercices corrigés</t>
+          <t>400 exercices corrigés d'algèbre avec rappels de cours pour spé mp-mp*</t>
         </is>
       </c>
       <c r="G638" t="inlineStr">
@@ -35766,10 +35766,10 @@
         </is>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J638" t="n">
         <v>0</v>
@@ -35781,35 +35781,35 @@
         <v>0</v>
       </c>
       <c r="M638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N638" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P638" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr"/>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Le MBA visuel : deux années de MBA en un un seul livre dans lequel un dessin vaut mieux que 1000 mot</t>
+          <t>Cambridge English Skills Real Listening and Speaking 2</t>
         </is>
       </c>
       <c r="C639" t="inlineStr"/>
       <c r="D639" t="inlineStr">
         <is>
-          <t>350 BAR/3</t>
+          <t>NAN</t>
         </is>
       </c>
       <c r="E639" t="inlineStr"/>
       <c r="F639" t="inlineStr">
         <is>
-          <t>le mba visuel : deux années de mba en un un seul livre dans lequel un dessin vaut mieux que 1000 mot</t>
+          <t>cambridge english skills real listening and speaking 2</t>
         </is>
       </c>
       <c r="G639" t="inlineStr">
@@ -35821,7 +35821,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J639" t="n">
         <v>0</v>
@@ -35833,7 +35833,7 @@
         <v>0</v>
       </c>
       <c r="M639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N639" t="n">
         <v>1</v>
@@ -35849,19 +35849,19 @@
       <c r="A640" t="inlineStr"/>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Les Mathématiques en licence : cours et exercices résolus, 2e année. Tome1</t>
+          <t>Penser comme un millionaire :changer ses habitudes pour réussir et étre heureux</t>
         </is>
       </c>
       <c r="C640" t="inlineStr"/>
       <c r="D640" t="inlineStr">
         <is>
-          <t>510AZO</t>
+          <t>150/GRA/2</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
       <c r="F640" t="inlineStr">
         <is>
-          <t>les mathématiques en licence : cours et exercices résolus, 2e année. tome1</t>
+          <t>penser comme un millionaire :changer ses habitudes pour réussir et étre heureux</t>
         </is>
       </c>
       <c r="G640" t="inlineStr">
@@ -35870,7 +35870,7 @@
         </is>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -35879,7 +35879,7 @@
         <v>0</v>
       </c>
       <c r="K640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L640" t="n">
         <v>0</v>
@@ -35888,10 +35888,10 @@
         <v>0</v>
       </c>
       <c r="N640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P640" t="n">
         <v>1</v>
@@ -35901,19 +35901,19 @@
       <c r="A641" t="inlineStr"/>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Programmation Linéaire</t>
+          <t>Anatomie et physiologie humaines</t>
         </is>
       </c>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr">
         <is>
-          <t>519.72 BEN/13</t>
+          <t>611.9/MAR/2</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
       <c r="F641" t="inlineStr">
         <is>
-          <t>programmation linéaire</t>
+          <t>anatomie et physiologie humaines</t>
         </is>
       </c>
       <c r="G641" t="inlineStr">
@@ -35928,10 +35928,10 @@
         <v>0</v>
       </c>
       <c r="J641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L641" t="n">
         <v>0</v>
@@ -35953,19 +35953,19 @@
       <c r="A642" t="inlineStr"/>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Ant Colony Optimization</t>
+          <t>ELEMENTS D'ANALYSE NUMERIQUE</t>
         </is>
       </c>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
         <is>
-          <t>005.1.16.DOR/1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E642" t="inlineStr"/>
       <c r="F642" t="inlineStr">
         <is>
-          <t>ant colony optimization</t>
+          <t>elements d'analyse numerique</t>
         </is>
       </c>
       <c r="G642" t="inlineStr">
@@ -35977,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="I642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J642" t="n">
         <v>0</v>
       </c>
       <c r="K642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L642" t="n">
         <v>0</v>
